--- a/git環境構築.xlsx
+++ b/git環境構築.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name=".gitignore" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -63,12 +63,94 @@
     <t>eclipse4.6</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>.gradle</t>
+  </si>
+  <si>
+    <t>/build/</t>
+  </si>
+  <si>
+    <t>/dist/</t>
+  </si>
+  <si>
+    <t>!gradle/wrapper/gradle-wrapper.jar</t>
+  </si>
+  <si>
+    <t>### STS ###</t>
+  </si>
+  <si>
+    <t>.apt_generated</t>
+  </si>
+  <si>
+    <t>.classpath</t>
+  </si>
+  <si>
+    <t>.factorypath</t>
+  </si>
+  <si>
+    <t>.project</t>
+  </si>
+  <si>
+    <t>.settings</t>
+  </si>
+  <si>
+    <t>.springBeans</t>
+  </si>
+  <si>
+    <t>*.class</t>
+  </si>
+  <si>
+    <t>/bin/</t>
+  </si>
+  <si>
+    <t>### IntelliJ IDEA ###</t>
+  </si>
+  <si>
+    <t>.idea</t>
+  </si>
+  <si>
+    <t>*.iws</t>
+  </si>
+  <si>
+    <t>*.iml</t>
+  </si>
+  <si>
+    <t>*.ipr</t>
+  </si>
+  <si>
+    <t>### NetBeans ###</t>
+  </si>
+  <si>
+    <t>nbproject/private/</t>
+  </si>
+  <si>
+    <t>build/</t>
+  </si>
+  <si>
+    <t>nbbuild/</t>
+  </si>
+  <si>
+    <t>dist/</t>
+  </si>
+  <si>
+    <t>nbdist/</t>
+  </si>
+  <si>
+    <t>.nb-gradle/</t>
+  </si>
+  <si>
+    <t>補足：.gitignore</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +172,14 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -137,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +238,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -184,6 +277,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -875,7 +976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -907,9 +1008,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,6 +1043,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1116,21 +1219,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="39.25" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1152,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1163,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1174,7 +1277,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
@@ -1188,13 +1296,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1202,12 +1438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
